--- a/OPCODE-uri.xlsx
+++ b/OPCODE-uri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul 3\Semestrul 2\Arhitectura sistemelor de calcul\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4B691C-7F1A-42B5-B09A-4C1790DF1E04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A12E1BC-B5C2-4FFF-8D67-E7EC231F81F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C3266503-3D4A-4217-883A-3F21B09D5F64}"/>
+    <workbookView xWindow="4230" yWindow="630" windowWidth="22290" windowHeight="12960" xr2:uid="{C3266503-3D4A-4217-883A-3F21B09D5F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1048,18 +1048,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,23 +1066,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1100,14 +1090,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD33FED-E2E6-4014-BFFE-C02D74BAA994}">
   <dimension ref="A1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,84 +1456,84 @@
       <c r="AK1" t="s">
         <v>170</v>
       </c>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="9"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24" t="s">
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="25"/>
-      <c r="AK2" s="36" t="s">
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="47"/>
+      <c r="AK2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="35" t="s">
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="33"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="36"/>
       <c r="BB2" s="9"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
@@ -1596,26 +1596,26 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="13"/>
-      <c r="AK3" s="31">
+      <c r="AK3" s="23">
         <v>0</v>
       </c>
       <c r="AL3" s="13">
         <v>0</v>
       </c>
-      <c r="AM3" s="37" t="s">
+      <c r="AM3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="41"/>
       <c r="BB3" s="8"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -1684,20 +1684,20 @@
       <c r="AL4" s="4">
         <v>1</v>
       </c>
-      <c r="AM4" s="40" t="s">
+      <c r="AM4" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="34"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="44"/>
       <c r="BB4" s="8"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -1766,20 +1766,20 @@
       <c r="AL5" s="4">
         <v>0</v>
       </c>
-      <c r="AM5" s="40" t="s">
+      <c r="AM5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="34"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="44"/>
       <c r="BB5" s="8"/>
     </row>
     <row r="6" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
@@ -1848,20 +1848,20 @@
       <c r="AL6" s="7">
         <v>1</v>
       </c>
-      <c r="AM6" s="35" t="s">
+      <c r="AM6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="33"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="36"/>
       <c r="BB6" s="8"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -1928,7 +1928,7 @@
       <c r="BB7" s="8"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3">
@@ -1995,7 +1995,7 @@
       <c r="BB8" s="8"/>
     </row>
     <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="5">
@@ -2183,7 +2183,7 @@
       <c r="A13" t="s">
         <v>166</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="S13" s="25" t="s">
         <v>168</v>
       </c>
       <c r="AJ13" s="8"/>
@@ -2192,60 +2192,60 @@
       </c>
     </row>
     <row r="14" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="46"/>
+      <c r="N14" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="26" t="s">
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="25"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="47"/>
       <c r="AJ14" s="8"/>
       <c r="AL14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AM14" s="27" t="s">
+      <c r="AM14" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="29"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="34"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -2284,7 +2284,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="13"/>
-      <c r="S15" s="44" t="s">
+      <c r="S15" s="27" t="s">
         <v>38</v>
       </c>
       <c r="T15" s="2">
@@ -2350,7 +2350,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3">
@@ -2389,7 +2389,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="4"/>
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="28" t="s">
         <v>39</v>
       </c>
       <c r="T16" s="3">
@@ -2455,7 +2455,7 @@
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3">
@@ -2494,7 +2494,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="4"/>
-      <c r="S17" s="45" t="s">
+      <c r="S17" s="28" t="s">
         <v>40</v>
       </c>
       <c r="T17" s="3">
@@ -2560,7 +2560,7 @@
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3">
@@ -2599,7 +2599,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
-      <c r="S18" s="45" t="s">
+      <c r="S18" s="28" t="s">
         <v>41</v>
       </c>
       <c r="T18" s="3">
@@ -2665,7 +2665,7 @@
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3">
@@ -2704,7 +2704,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="4"/>
-      <c r="S19" s="45" t="s">
+      <c r="S19" s="28" t="s">
         <v>42</v>
       </c>
       <c r="T19" s="3">
@@ -2769,7 +2769,7 @@
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3">
@@ -2808,7 +2808,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
-      <c r="S20" s="45" t="s">
+      <c r="S20" s="28" t="s">
         <v>43</v>
       </c>
       <c r="T20" s="3">
@@ -2873,7 +2873,7 @@
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3">
@@ -2912,7 +2912,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="4"/>
-      <c r="S21" s="45" t="s">
+      <c r="S21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="T21" s="3">
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="3">
@@ -3016,7 +3016,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="4"/>
-      <c r="S22" s="45" t="s">
+      <c r="S22" s="28" t="s">
         <v>45</v>
       </c>
       <c r="T22" s="3">
@@ -3081,7 +3081,7 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3">
@@ -3120,7 +3120,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="4"/>
-      <c r="S23" s="45" t="s">
+      <c r="S23" s="28" t="s">
         <v>46</v>
       </c>
       <c r="T23" s="3">
@@ -3185,7 +3185,7 @@
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3">
@@ -3224,7 +3224,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="4"/>
-      <c r="S24" s="45" t="s">
+      <c r="S24" s="28" t="s">
         <v>47</v>
       </c>
       <c r="T24" s="3">
@@ -3289,7 +3289,7 @@
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="3">
@@ -3328,7 +3328,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="4"/>
-      <c r="S25" s="45" t="s">
+      <c r="S25" s="28" t="s">
         <v>48</v>
       </c>
       <c r="T25" s="3">
@@ -3393,7 +3393,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3">
@@ -3432,7 +3432,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="4"/>
-      <c r="S26" s="45" t="s">
+      <c r="S26" s="28" t="s">
         <v>49</v>
       </c>
       <c r="T26" s="3">
@@ -3497,7 +3497,7 @@
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3">
@@ -3536,7 +3536,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="4"/>
-      <c r="S27" s="45" t="s">
+      <c r="S27" s="28" t="s">
         <v>50</v>
       </c>
       <c r="T27" s="3">
@@ -3601,7 +3601,7 @@
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3">
@@ -3640,7 +3640,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="4"/>
-      <c r="S28" s="45" t="s">
+      <c r="S28" s="28" t="s">
         <v>51</v>
       </c>
       <c r="T28" s="3">
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="5">
@@ -3744,7 +3744,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
-      <c r="S29" s="45" t="s">
+      <c r="S29" s="28" t="s">
         <v>52</v>
       </c>
       <c r="T29" s="3">
@@ -3809,7 +3809,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S30" s="45" t="s">
+      <c r="S30" s="28" t="s">
         <v>53</v>
       </c>
       <c r="T30" s="3">
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="S31" s="45" t="s">
+      <c r="S31" s="28" t="s">
         <v>54</v>
       </c>
       <c r="T31" s="3">
@@ -3924,7 +3924,7 @@
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="S32" s="45" t="s">
+      <c r="S32" s="28" t="s">
         <v>55</v>
       </c>
       <c r="T32" s="3">
@@ -3974,7 +3974,7 @@
       </c>
     </row>
     <row r="33" spans="19:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S33" s="46" t="s">
+      <c r="S33" s="29" t="s">
         <v>56</v>
       </c>
       <c r="T33" s="5">
@@ -4025,6 +4025,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="T14:AH14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="AM14:AP14"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AM6:AT6"/>
@@ -4032,17 +4043,6 @@
     <mergeCell ref="AM3:AT3"/>
     <mergeCell ref="AM4:AT4"/>
     <mergeCell ref="AM5:AT5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="T14:AH14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4053,14 +4053,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C4B49D-EC1E-4817-B5F5-07AECE824F41}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
@@ -4117,10 +4117,10 @@
       <c r="H2" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="14" t="s">
         <v>58</v>
       </c>

--- a/OPCODE-uri.xlsx
+++ b/OPCODE-uri.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul 3\Semestrul 2\Arhitectura sistemelor de calcul\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\arhitectura_microprocesor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A12E1BC-B5C2-4FFF-8D67-E7EC231F81F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E5005-8B61-4211-BFD5-09F5C551654A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="630" windowWidth="22290" windowHeight="12960" xr2:uid="{C3266503-3D4A-4217-883A-3F21B09D5F64}"/>
+    <workbookView xWindow="435" yWindow="1140" windowWidth="22290" windowHeight="12960" activeTab="2" xr2:uid="{C3266503-3D4A-4217-883A-3F21B09D5F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="219">
   <si>
     <t>Opcode</t>
   </si>
@@ -539,13 +540,157 @@
   </si>
   <si>
     <t>Mod de adresare</t>
+  </si>
+  <si>
+    <t>PdA, PdM , Cin, SUM, PdALU, PmA, TI1</t>
+  </si>
+  <si>
+    <t>Cout : A(1)C</t>
+  </si>
+  <si>
+    <t>Cout : A(0)C</t>
+  </si>
+  <si>
+    <t>ZR : A(1)Z</t>
+  </si>
+  <si>
+    <t>ZR : A(0)Z</t>
+  </si>
+  <si>
+    <t>SR : A(1)S</t>
+  </si>
+  <si>
+    <t>SR : A(0)S</t>
+  </si>
+  <si>
+    <t>DCRSUB : A(1)V</t>
+  </si>
+  <si>
+    <t>DCRSUB : A(0)V</t>
+  </si>
+  <si>
+    <t>INTR : TIF</t>
+  </si>
+  <si>
+    <t>INTR : TINT</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Instructiune</t>
+  </si>
+  <si>
+    <t>Semnale</t>
+  </si>
+  <si>
+    <t>PdA, PdM, SUM, PdALU, PmA, TI1</t>
+  </si>
+  <si>
+    <t>PdA, PdM , Cin, SUM, PdALU, TI1</t>
+  </si>
+  <si>
+    <t>PdA, PdM, AND, PdALU, PmA, TI1</t>
+  </si>
+  <si>
+    <t>Pd0s, PdM, Cin, SUM, PdALU, TI1</t>
+  </si>
+  <si>
+    <t>AD : PmRG</t>
+  </si>
+  <si>
+    <t>AI : WR</t>
+  </si>
+  <si>
+    <t>AX : WR</t>
+  </si>
+  <si>
+    <t>V : A(1)V</t>
+  </si>
+  <si>
+    <t>V : A(0)V</t>
+  </si>
+  <si>
+    <t>S : A(0)S</t>
+  </si>
+  <si>
+    <t>S : A(1)S</t>
+  </si>
+  <si>
+    <t>Z : A(0)Z</t>
+  </si>
+  <si>
+    <t>Z : A(1)Z</t>
+  </si>
+  <si>
+    <t>C : A(0)C</t>
+  </si>
+  <si>
+    <t>C : A(1)C</t>
+  </si>
+  <si>
+    <t>Pd-1s, PdM, SUM, PdALU, TI1</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Pd_XX, SBUS, PdALU, TI1</t>
+  </si>
+  <si>
+    <t>PmPC, TI1</t>
+  </si>
+  <si>
+    <t>AM : PdIR[OP], PdPC, SUM, PdALU</t>
+  </si>
+  <si>
+    <t>AM : PdADR</t>
+  </si>
+  <si>
+    <t>PdA, SBUS , PdALU, PmA, TI1</t>
+  </si>
+  <si>
+    <t>Impuls</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>-2SP</t>
+  </si>
+  <si>
+    <t>PdSP, SBUS,</t>
+  </si>
+  <si>
+    <t>PdALU, PmADR</t>
+  </si>
+  <si>
+    <t>PdA, SBUS, PdALU, WR, TI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH </t>
+  </si>
+  <si>
+    <t>PdSP, SBUS, PdALU,</t>
+  </si>
+  <si>
+    <t>PmADR</t>
+  </si>
+  <si>
+    <t>RD, PdMEM, PmA, +2SP, TI1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,16 +704,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1016,11 +1175,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1057,6 +1284,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,17 +1332,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD33FED-E2E6-4014-BFFE-C02D74BAA994}">
   <dimension ref="A1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -1468,68 +1761,68 @@
     </row>
     <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46" t="s">
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="34"/>
       <c r="R2" s="9"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="34"/>
+      <c r="AK2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37" t="s">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="36"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="39"/>
       <c r="BB2" s="9"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -1602,16 +1895,16 @@
       <c r="AL3" s="13">
         <v>0</v>
       </c>
-      <c r="AM3" s="39" t="s">
+      <c r="AM3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="41"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="44"/>
       <c r="BB3" s="8"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
@@ -1684,16 +1977,16 @@
       <c r="AL4" s="4">
         <v>1</v>
       </c>
-      <c r="AM4" s="42" t="s">
+      <c r="AM4" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="44"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="47"/>
       <c r="BB4" s="8"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -1766,16 +2059,16 @@
       <c r="AL5" s="4">
         <v>0</v>
       </c>
-      <c r="AM5" s="42" t="s">
+      <c r="AM5" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="44"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="47"/>
       <c r="BB5" s="8"/>
     </row>
     <row r="6" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1848,16 +2141,16 @@
       <c r="AL6" s="7">
         <v>1</v>
       </c>
-      <c r="AM6" s="37" t="s">
+      <c r="AM6" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="36"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="39"/>
       <c r="BB6" s="8"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -2193,56 +2486,56 @@
     </row>
     <row r="14" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46" t="s">
+      <c r="M14" s="33"/>
+      <c r="N14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="45" t="s">
+      <c r="T14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="47"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="34"/>
       <c r="AJ14" s="8"/>
       <c r="AL14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AM14" s="32" t="s">
+      <c r="AM14" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="34"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="37"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
@@ -4025,6 +4318,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM6:AT6"/>
+    <mergeCell ref="AM2:AT2"/>
+    <mergeCell ref="AM3:AT3"/>
+    <mergeCell ref="AM4:AT4"/>
+    <mergeCell ref="AM5:AT5"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:Q14"/>
@@ -4036,13 +4336,6 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM6:AT6"/>
-    <mergeCell ref="AM2:AT2"/>
-    <mergeCell ref="AM3:AT3"/>
-    <mergeCell ref="AM4:AT4"/>
-    <mergeCell ref="AM5:AT5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4054,7 +4347,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,7 +4413,7 @@
       <c r="J2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="46"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="14" t="s">
         <v>58</v>
       </c>
@@ -4727,4 +5020,865 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17310EBE-57D2-4FB4-9248-5EA040377F05}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="49"/>
+    <col min="4" max="4" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="49"/>
+    <col min="7" max="7" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="49"/>
+    <col min="10" max="10" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="49" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="H26" s="50"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="50"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="50"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="56"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="53"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="53"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="53"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="53"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="50"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="50"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="50"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="50"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="50"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="52"/>
+      <c r="H44" s="50"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="70"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="68"/>
+    </row>
+    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="69"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
+      <c r="B55" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="69"/>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="52"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G19:G28"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="J16:J28"/>
+    <mergeCell ref="G32:G44"/>
+    <mergeCell ref="J32:J44"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="J3:J12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OPCODE-uri.xlsx
+++ b/OPCODE-uri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\arhitectura_microprocesor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E5005-8B61-4211-BFD5-09F5C551654A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB49BB6-4C58-43D7-9087-0E9368E0CB26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="1140" windowWidth="22290" windowHeight="12960" activeTab="2" xr2:uid="{C3266503-3D4A-4217-883A-3F21B09D5F64}"/>
   </bookViews>
@@ -5026,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17310EBE-57D2-4FB4-9248-5EA040377F05}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OPCODE-uri.xlsx
+++ b/OPCODE-uri.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\arhitectura_microprocesor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB49BB6-4C58-43D7-9087-0E9368E0CB26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA151373-EF3B-4BB1-ACD5-FCC4790A373D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1140" windowWidth="22290" windowHeight="12960" activeTab="2" xr2:uid="{C3266503-3D4A-4217-883A-3F21B09D5F64}"/>
+    <workbookView xWindow="2715" yWindow="1035" windowWidth="22575" windowHeight="12960" activeTab="4" xr2:uid="{C3266503-3D4A-4217-883A-3F21B09D5F64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Cod_instr" sheetId="1" r:id="rId1"/>
+    <sheet name="Ex_cod" sheetId="2" r:id="rId2"/>
+    <sheet name="Semnale" sheetId="3" r:id="rId3"/>
+    <sheet name="MP" sheetId="4" r:id="rId4"/>
+    <sheet name="Faze+Impuls" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="285">
   <si>
     <t>Opcode</t>
   </si>
@@ -684,6 +686,230 @@
   </si>
   <si>
     <t>RD, PdMEM, PmA, +2SP, TI1</t>
+  </si>
+  <si>
+    <t>Semnal</t>
+  </si>
+  <si>
+    <t>Efect</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>MDR = MP[ADR]</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Pentru instructiuni de scriere/citire din memoriea principala MP</t>
+  </si>
+  <si>
+    <t>IFCH</t>
+  </si>
+  <si>
+    <t>MP[ADR] = MDR</t>
+  </si>
+  <si>
+    <t>IR=MP[ADR]</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>(Timer)</t>
+  </si>
+  <si>
+    <t>Frecventa CLK = Frecventa Procesor</t>
+  </si>
+  <si>
+    <t>Tabel Comenzi IF</t>
+  </si>
+  <si>
+    <t>PdPC, DBUS, PdALU, PmADR</t>
+  </si>
+  <si>
+    <t>DBUS=PC, RBUS=0, RBUS=SBUS+DBUS, ADR=RBUS</t>
+  </si>
+  <si>
+    <t>IFCH, PdMEM, PmIR, +2PC</t>
+  </si>
+  <si>
+    <t>IR=MP[ADR], PC=PC+2</t>
+  </si>
+  <si>
+    <t>IOP: TOF, TI1 sau !IOP: TEX, TI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OF </t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>Tabel Comenzi OF</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>ADD (R0)10, (R1)20</t>
+  </si>
+  <si>
+    <t>MOV (r1)10, (r2)10</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 1010</t>
+  </si>
+  <si>
+    <t>PdMDR, SBUS, PdIR[RD], DBUS, SUM, ALU, PmR[RD]</t>
+  </si>
+  <si>
+    <t>R[RD] = MDR + RD</t>
+  </si>
+  <si>
+    <t>MD = 11 : READ, PdMEM, PmMDR, +2PC sau TI3</t>
+  </si>
+  <si>
+    <t>MS=11: READ, PdMEM, PmMDR, +2PC sau TEX, TI1</t>
+  </si>
+  <si>
+    <t>PdMDR, SBUS, PdIR[RS], DBUS, SUM, ALU, PmR[RD], TEX, TI1</t>
+  </si>
+  <si>
+    <t>Tabel Comenzi EX</t>
+  </si>
+  <si>
+    <t>MDR = MP[ADR] = primul operand, PC=PC+2</t>
+  </si>
+  <si>
+    <t>ADR=PC</t>
+  </si>
+  <si>
+    <t>R[RS] = MDR + RS</t>
+  </si>
+  <si>
+    <t>PdR[RD], DBUS, PdALU, PmT</t>
+  </si>
+  <si>
+    <t>T=R[RD]</t>
+  </si>
+  <si>
+    <t>R[RD] = T + R[RS]</t>
+  </si>
+  <si>
+    <r>
+      <t>PdR[RS], SBUS,  PdT, DBUS, SUM, PdALU, PmR[RD]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, INTR/!INTR : TIF/TINT, TI1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IFCH, PdMEM, PmIR, +2PC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IOP: TOF, TI1 sau !IOP: TEX, TI1</t>
+    </r>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ADR=0</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>MDR=0xA</t>
+  </si>
+  <si>
+    <t>IR=0x08C2</t>
+  </si>
+  <si>
+    <t>0000000000010100</t>
+  </si>
+  <si>
+    <t>0000000000001010</t>
+  </si>
+  <si>
+    <t>0001 11 0001 11 0000</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0xA</t>
+  </si>
+  <si>
+    <t>0x1C70</t>
+  </si>
+  <si>
+    <t>MDR=0x14</t>
+  </si>
+  <si>
+    <t>R[0]=0xA+R[0]</t>
+  </si>
+  <si>
+    <t>R[1]=0x14+R[1]</t>
+  </si>
+  <si>
+    <t>T=R[1]</t>
+  </si>
+  <si>
+    <t>Tabel Comenzi IF Instructiunea Urmatoare ADD R1, R2</t>
+  </si>
+  <si>
+    <t>ADR=6</t>
+  </si>
+  <si>
+    <t>0001010010010001</t>
+  </si>
+  <si>
+    <t>0x1491</t>
+  </si>
+  <si>
+    <t>IR=0x1491</t>
+  </si>
+  <si>
+    <t>T=R[0]</t>
+  </si>
+  <si>
+    <t>R[0]=R[1]+T</t>
+  </si>
+  <si>
+    <t>R[1] = R[2] + T</t>
   </si>
 </sst>
 </file>
@@ -713,7 +939,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +952,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1243,11 +1487,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1284,14 +1563,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,32 +1644,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,20 +1689,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1718,7 +2096,7 @@
   <dimension ref="A1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,75 +2139,75 @@
     </row>
     <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="M2" s="60"/>
+      <c r="N2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="9"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33" t="s">
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="34"/>
-      <c r="AK2" s="38" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
+      <c r="AK2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40" t="s">
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="39"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="50"/>
       <c r="BB2" s="9"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="88">
         <v>0</v>
       </c>
       <c r="C3" s="12">
@@ -1857,10 +2235,10 @@
       <c r="S3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="12">
+      <c r="T3" s="88">
+        <v>1</v>
+      </c>
+      <c r="U3" s="91">
         <v>1</v>
       </c>
       <c r="V3" s="12">
@@ -1895,23 +2273,23 @@
       <c r="AL3" s="13">
         <v>0</v>
       </c>
-      <c r="AM3" s="42" t="s">
+      <c r="AM3" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="44"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="55"/>
       <c r="BB3" s="8"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="89">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -1939,10 +2317,10 @@
       <c r="S4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
+      <c r="T4" s="89">
+        <v>1</v>
+      </c>
+      <c r="U4" s="92">
         <v>1</v>
       </c>
       <c r="V4" s="1">
@@ -1977,23 +2355,23 @@
       <c r="AL4" s="4">
         <v>1</v>
       </c>
-      <c r="AM4" s="45" t="s">
+      <c r="AM4" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="47"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="58"/>
       <c r="BB4" s="8"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="89">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -2021,10 +2399,10 @@
       <c r="S5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
+      <c r="T5" s="89">
+        <v>1</v>
+      </c>
+      <c r="U5" s="92">
         <v>1</v>
       </c>
       <c r="V5" s="1">
@@ -2059,23 +2437,23 @@
       <c r="AL5" s="4">
         <v>0</v>
       </c>
-      <c r="AM5" s="45" t="s">
+      <c r="AM5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="47"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="58"/>
       <c r="BB5" s="8"/>
     </row>
     <row r="6" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="89">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -2103,10 +2481,10 @@
       <c r="S6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="T6" s="89">
+        <v>1</v>
+      </c>
+      <c r="U6" s="92">
         <v>1</v>
       </c>
       <c r="V6" s="1">
@@ -2141,23 +2519,23 @@
       <c r="AL6" s="7">
         <v>1</v>
       </c>
-      <c r="AM6" s="40" t="s">
+      <c r="AM6" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="39"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="50"/>
       <c r="BB6" s="8"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="89">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -2185,10 +2563,10 @@
       <c r="S7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="3">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="T7" s="89">
+        <v>1</v>
+      </c>
+      <c r="U7" s="92">
         <v>1</v>
       </c>
       <c r="V7" s="1">
@@ -2224,7 +2602,7 @@
       <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="89">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -2252,10 +2630,10 @@
       <c r="S8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="3">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
+      <c r="T8" s="89">
+        <v>1</v>
+      </c>
+      <c r="U8" s="92">
         <v>1</v>
       </c>
       <c r="V8" s="1">
@@ -2291,7 +2669,7 @@
       <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="90">
         <v>0</v>
       </c>
       <c r="C9" s="6">
@@ -2319,10 +2697,10 @@
       <c r="S9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="3">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1">
+      <c r="T9" s="89">
+        <v>1</v>
+      </c>
+      <c r="U9" s="92">
         <v>1</v>
       </c>
       <c r="V9" s="1">
@@ -2376,10 +2754,10 @@
       <c r="S10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="3">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1">
+      <c r="T10" s="89">
+        <v>1</v>
+      </c>
+      <c r="U10" s="92">
         <v>1</v>
       </c>
       <c r="V10" s="1">
@@ -2415,10 +2793,10 @@
       <c r="S11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="T11" s="90">
+        <v>1</v>
+      </c>
+      <c r="U11" s="93">
         <v>1</v>
       </c>
       <c r="V11" s="6">
@@ -2486,62 +2864,62 @@
     </row>
     <row r="14" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33" t="s">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33" t="s">
+      <c r="M14" s="60"/>
+      <c r="N14" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="61"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="32" t="s">
+      <c r="T14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="34"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="61"/>
       <c r="AJ14" s="8"/>
       <c r="AL14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AM14" s="35" t="s">
+      <c r="AM14" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="37"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="48"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="88">
         <v>1</v>
       </c>
       <c r="C15" s="12">
@@ -2580,13 +2958,13 @@
       <c r="S15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="12">
-        <v>1</v>
-      </c>
-      <c r="V15" s="12">
+      <c r="T15" s="88">
+        <v>1</v>
+      </c>
+      <c r="U15" s="91">
+        <v>1</v>
+      </c>
+      <c r="V15" s="91">
         <v>1</v>
       </c>
       <c r="W15" s="12">
@@ -2646,7 +3024,7 @@
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="89">
         <v>1</v>
       </c>
       <c r="C16" s="1">
@@ -2685,13 +3063,13 @@
       <c r="S16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1">
+      <c r="T16" s="89">
+        <v>1</v>
+      </c>
+      <c r="U16" s="92">
+        <v>1</v>
+      </c>
+      <c r="V16" s="92">
         <v>1</v>
       </c>
       <c r="W16" s="1">
@@ -2751,7 +3129,7 @@
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="89">
         <v>1</v>
       </c>
       <c r="C17" s="1">
@@ -2790,13 +3168,13 @@
       <c r="S17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="3">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="T17" s="89">
+        <v>1</v>
+      </c>
+      <c r="U17" s="92">
+        <v>1</v>
+      </c>
+      <c r="V17" s="92">
         <v>1</v>
       </c>
       <c r="W17" s="1">
@@ -2856,7 +3234,7 @@
       <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="89">
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -2895,13 +3273,13 @@
       <c r="S18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="T18" s="3">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="T18" s="89">
+        <v>1</v>
+      </c>
+      <c r="U18" s="92">
+        <v>1</v>
+      </c>
+      <c r="V18" s="92">
         <v>1</v>
       </c>
       <c r="W18" s="1">
@@ -2961,7 +3339,7 @@
       <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="89">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -3000,13 +3378,13 @@
       <c r="S19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="T19" s="3">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
+      <c r="T19" s="89">
+        <v>1</v>
+      </c>
+      <c r="U19" s="92">
+        <v>1</v>
+      </c>
+      <c r="V19" s="92">
         <v>1</v>
       </c>
       <c r="W19" s="1">
@@ -3065,7 +3443,7 @@
       <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="89">
         <v>1</v>
       </c>
       <c r="C20" s="1">
@@ -3104,13 +3482,13 @@
       <c r="S20" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="3">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1">
+      <c r="T20" s="89">
+        <v>1</v>
+      </c>
+      <c r="U20" s="92">
+        <v>1</v>
+      </c>
+      <c r="V20" s="92">
         <v>1</v>
       </c>
       <c r="W20" s="1">
@@ -3169,7 +3547,7 @@
       <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="89">
         <v>1</v>
       </c>
       <c r="C21" s="1">
@@ -3208,13 +3586,13 @@
       <c r="S21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="3">
-        <v>1</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1">
+      <c r="T21" s="89">
+        <v>1</v>
+      </c>
+      <c r="U21" s="92">
+        <v>1</v>
+      </c>
+      <c r="V21" s="92">
         <v>1</v>
       </c>
       <c r="W21" s="1">
@@ -3273,7 +3651,7 @@
       <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="89">
         <v>1</v>
       </c>
       <c r="C22" s="1">
@@ -3312,13 +3690,13 @@
       <c r="S22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="3">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1">
+      <c r="T22" s="89">
+        <v>1</v>
+      </c>
+      <c r="U22" s="92">
+        <v>1</v>
+      </c>
+      <c r="V22" s="92">
         <v>1</v>
       </c>
       <c r="W22" s="1">
@@ -3377,7 +3755,7 @@
       <c r="A23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="89">
         <v>1</v>
       </c>
       <c r="C23" s="1">
@@ -3416,13 +3794,13 @@
       <c r="S23" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="T23" s="3">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1">
+      <c r="T23" s="89">
+        <v>1</v>
+      </c>
+      <c r="U23" s="92">
+        <v>1</v>
+      </c>
+      <c r="V23" s="92">
         <v>1</v>
       </c>
       <c r="W23" s="1">
@@ -3481,7 +3859,7 @@
       <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="89">
         <v>1</v>
       </c>
       <c r="C24" s="1">
@@ -3520,13 +3898,13 @@
       <c r="S24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="T24" s="3">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
+      <c r="T24" s="89">
+        <v>1</v>
+      </c>
+      <c r="U24" s="92">
+        <v>1</v>
+      </c>
+      <c r="V24" s="92">
         <v>1</v>
       </c>
       <c r="W24" s="1">
@@ -3585,7 +3963,7 @@
       <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="89">
         <v>1</v>
       </c>
       <c r="C25" s="1">
@@ -3624,13 +4002,13 @@
       <c r="S25" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="T25" s="3">
-        <v>1</v>
-      </c>
-      <c r="U25" s="1">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1">
+      <c r="T25" s="89">
+        <v>1</v>
+      </c>
+      <c r="U25" s="92">
+        <v>1</v>
+      </c>
+      <c r="V25" s="92">
         <v>1</v>
       </c>
       <c r="W25" s="1">
@@ -3689,7 +4067,7 @@
       <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="89">
         <v>1</v>
       </c>
       <c r="C26" s="1">
@@ -3728,13 +4106,13 @@
       <c r="S26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="T26" s="3">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1">
+      <c r="T26" s="89">
+        <v>1</v>
+      </c>
+      <c r="U26" s="92">
+        <v>1</v>
+      </c>
+      <c r="V26" s="92">
         <v>1</v>
       </c>
       <c r="W26" s="1">
@@ -3793,7 +4171,7 @@
       <c r="A27" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="89">
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -3832,13 +4210,13 @@
       <c r="S27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="3">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1">
+      <c r="T27" s="89">
+        <v>1</v>
+      </c>
+      <c r="U27" s="92">
+        <v>1</v>
+      </c>
+      <c r="V27" s="92">
         <v>1</v>
       </c>
       <c r="W27" s="1">
@@ -3897,7 +4275,7 @@
       <c r="A28" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="89">
         <v>1</v>
       </c>
       <c r="C28" s="1">
@@ -3936,13 +4314,13 @@
       <c r="S28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="3">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1">
-        <v>1</v>
-      </c>
-      <c r="V28" s="1">
+      <c r="T28" s="89">
+        <v>1</v>
+      </c>
+      <c r="U28" s="92">
+        <v>1</v>
+      </c>
+      <c r="V28" s="92">
         <v>1</v>
       </c>
       <c r="W28" s="1">
@@ -4001,7 +4379,7 @@
       <c r="A29" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="90">
         <v>1</v>
       </c>
       <c r="C29" s="6">
@@ -4040,13 +4418,13 @@
       <c r="S29" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="3">
-        <v>1</v>
-      </c>
-      <c r="U29" s="1">
-        <v>1</v>
-      </c>
-      <c r="V29" s="1">
+      <c r="T29" s="89">
+        <v>1</v>
+      </c>
+      <c r="U29" s="92">
+        <v>1</v>
+      </c>
+      <c r="V29" s="92">
         <v>1</v>
       </c>
       <c r="W29" s="1">
@@ -4105,13 +4483,13 @@
       <c r="S30" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="3">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1">
-        <v>1</v>
-      </c>
-      <c r="V30" s="1">
+      <c r="T30" s="89">
+        <v>1</v>
+      </c>
+      <c r="U30" s="92">
+        <v>1</v>
+      </c>
+      <c r="V30" s="92">
         <v>1</v>
       </c>
       <c r="W30" s="1">
@@ -4170,13 +4548,13 @@
       <c r="S31" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1">
-        <v>1</v>
-      </c>
-      <c r="V31" s="1">
+      <c r="T31" s="89">
+        <v>1</v>
+      </c>
+      <c r="U31" s="92">
+        <v>1</v>
+      </c>
+      <c r="V31" s="92">
         <v>1</v>
       </c>
       <c r="W31" s="1">
@@ -4220,13 +4598,13 @@
       <c r="S32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="T32" s="3">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1">
-        <v>1</v>
-      </c>
-      <c r="V32" s="1">
+      <c r="T32" s="89">
+        <v>1</v>
+      </c>
+      <c r="U32" s="92">
+        <v>1</v>
+      </c>
+      <c r="V32" s="92">
         <v>1</v>
       </c>
       <c r="W32" s="1">
@@ -4270,13 +4648,13 @@
       <c r="S33" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="T33" s="5">
-        <v>1</v>
-      </c>
-      <c r="U33" s="6">
-        <v>1</v>
-      </c>
-      <c r="V33" s="6">
+      <c r="T33" s="90">
+        <v>1</v>
+      </c>
+      <c r="U33" s="93">
+        <v>1</v>
+      </c>
+      <c r="V33" s="93">
         <v>1</v>
       </c>
       <c r="W33" s="6">
@@ -4318,13 +4696,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AM14:AP14"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM6:AT6"/>
-    <mergeCell ref="AM2:AT2"/>
-    <mergeCell ref="AM3:AT3"/>
-    <mergeCell ref="AM4:AT4"/>
-    <mergeCell ref="AM5:AT5"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:Q14"/>
@@ -4336,6 +4707,13 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AM14:AP14"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM6:AT6"/>
+    <mergeCell ref="AM2:AT2"/>
+    <mergeCell ref="AM3:AT3"/>
+    <mergeCell ref="AM4:AT4"/>
+    <mergeCell ref="AM5:AT5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4346,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C4B49D-EC1E-4817-B5F5-07AECE824F41}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,10 +4788,10 @@
       <c r="H2" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="14" t="s">
         <v>58</v>
       </c>
@@ -4902,6 +5280,32 @@
       </c>
       <c r="H22" s="22" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5026,841 +5430,846 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17310EBE-57D2-4FB4-9248-5EA040377F05}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="49"/>
-    <col min="4" max="4" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="49"/>
-    <col min="7" max="7" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="49"/>
-    <col min="10" max="10" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" style="49" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="32"/>
+    <col min="4" max="4" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="32"/>
+    <col min="7" max="7" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="32"/>
+    <col min="10" max="10" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="32" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="33" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="36" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="36" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53" t="s">
+      <c r="G5" s="64"/>
+      <c r="H5" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="36" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53" t="s">
+      <c r="J6" s="64"/>
+      <c r="K6" s="36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53" t="s">
+      <c r="G7" s="64"/>
+      <c r="H7" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="64"/>
+      <c r="K7" s="36" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="64"/>
+      <c r="H8" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53" t="s">
+      <c r="J8" s="64"/>
+      <c r="K8" s="36" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53" t="s">
+      <c r="G9" s="64"/>
+      <c r="H9" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53" t="s">
+      <c r="G10" s="64"/>
+      <c r="H10" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53" t="s">
+      <c r="G11" s="64"/>
+      <c r="H11" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53" t="s">
+      <c r="G12" s="64"/>
+      <c r="H12" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-    </row>
+      <c r="J12" s="64"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="33" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="55" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J16" s="52" t="s">
+      <c r="J16" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="55" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="53" t="s">
+      <c r="G17" s="69"/>
+      <c r="H17" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53" t="s">
+      <c r="J17" s="64"/>
+      <c r="K17" s="36" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="55" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="70"/>
+      <c r="H18" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53" t="s">
+      <c r="J18" s="64"/>
+      <c r="K18" s="36" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53" t="s">
+      <c r="J19" s="64"/>
+      <c r="K19" s="36" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="66"/>
+      <c r="E21" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="36"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="53" t="s">
+      <c r="D22" s="66"/>
+      <c r="E22" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="36"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="66"/>
+      <c r="E23" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="36"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="66"/>
+      <c r="E24" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="36"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="53" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="36"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="50"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="50"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="33"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="66"/>
+      <c r="E27" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="50"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="50"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="33"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="50" t="s">
+      <c r="D28" s="67"/>
+      <c r="E28" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="50"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="50"/>
-    </row>
+      <c r="G28" s="64"/>
+      <c r="H28" s="33"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="56" t="s">
+      <c r="D32" s="66"/>
+      <c r="E32" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="56"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="56"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="39"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="56" t="s">
+      <c r="D33" s="66"/>
+      <c r="E33" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="36"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="56" t="s">
+      <c r="D34" s="67"/>
+      <c r="E34" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="36"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="36"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="53" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="36"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="53" t="s">
+      <c r="D37" s="66"/>
+      <c r="E37" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="36"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="53" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="36"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="36"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="53" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="36"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="36"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="53" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="36"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="53"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="53"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="36"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="36"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="53" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="36"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="53"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="53"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="36"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="50"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="50" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="33"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="50"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="50"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="33"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="33"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="50"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="50" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="33"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="50"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="50"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="33"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="33"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="50"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="50" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="33"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="50"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="50"/>
-    </row>
+      <c r="G44" s="64"/>
+      <c r="H44" s="33"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="33"/>
+    </row>
+    <row r="45" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="34" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="42" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="53" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="36" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="53" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="36" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="70"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="68"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="69"/>
+      <c r="D54" s="44"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="69"/>
+      <c r="D55" s="44"/>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="53" t="s">
+      <c r="A56" s="64"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="69"/>
+      <c r="D56" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="J16:J28"/>
+    <mergeCell ref="G32:G44"/>
+    <mergeCell ref="J32:J44"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="J3:J12"/>
     <mergeCell ref="A32:A44"/>
     <mergeCell ref="D35:D44"/>
     <mergeCell ref="D31:D34"/>
@@ -5870,15 +6279,957 @@
     <mergeCell ref="D19:D28"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="J16:J28"/>
-    <mergeCell ref="G32:G44"/>
-    <mergeCell ref="J32:J44"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB024D8-1B62-4D75-BADA-DA08FC9C19ED}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F061433-868C-43EF-BD37-C449E9EF70CB}">
+  <dimension ref="A1:AJ29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="32" customWidth="1"/>
+    <col min="2" max="12" width="4.140625" style="32"/>
+    <col min="13" max="13" width="6" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="27" width="4.140625" style="32"/>
+    <col min="28" max="28" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="69.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="45.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="54.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="4.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="P1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y1" s="76"/>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="79"/>
+      <c r="Z2" s="84"/>
+      <c r="AB2" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="R3" s="85"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="86"/>
+      <c r="X3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AB3" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD3" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE3" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC4" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD4" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE4" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH4" s="81"/>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="85"/>
+      <c r="AB5" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC5" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE5" s="35"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="83"/>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AB7" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="G9" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="S9" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="T9" s="86"/>
+      <c r="W9" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AB9" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC9" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD9" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC10" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD10" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="35"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="I11" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="J11" s="86"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="Q11" s="107" t="s">
+        <v>283</v>
+      </c>
+      <c r="U11" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z11" s="85"/>
+      <c r="AB11" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC11" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD11" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="80"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="94"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="94"/>
+      <c r="AB12" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AB13" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC13" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD13" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE13" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF13" s="97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="83"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AB14" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC14" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD14" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE14" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF14" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="AB15" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC15" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD15" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE15" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF15" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AB16" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="AB17" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC17" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD17" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AB18" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC18" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD18" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="AB19" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC19" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD19" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AB20" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="AB21" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC21" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD21" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AB22" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC22" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD22" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="35"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="AB23" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC23" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD23" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B24" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="H24" s="75"/>
+      <c r="I24" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB24" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="96"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="102"/>
+      <c r="AB25" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC25" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD25" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="97"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="75"/>
+      <c r="I26" s="32">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC26" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD26" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="32">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC27" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD27" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="H29" s="75"/>
+      <c r="I29" s="32">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AB20:AF20"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AB2:AE2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>